--- a/09_Driver/01 第一个Windows驱动.xlsx
+++ b/09_Driver/01 第一个Windows驱动.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.important\mySoftwareReverse\09_Driver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22100C08-EF81-4620-BD87-7697BEC24D4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{490D6720-9640-4E68-AE17-16D98D92659A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11976" yWindow="276" windowWidth="13272" windowHeight="9876" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <si>
     <t>1、驱动是进程吗?</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -280,11 +280,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DbgPrint函数输出时，对应的字符串格式为 %wZ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>以0结尾的字符串是不安全的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DbgPrint函数输出时，对应的字符串格式为 %wZ，需要传入PUNICODE_STRING 就是这个结构变量的地址。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>窄字符时使用的格式为为%Z。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -390,12 +394,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1218,8 +1221,8 @@
       <xdr:row>30</xdr:row>
       <xdr:rowOff>53100</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="9" name="墨迹 8">
@@ -1238,7 +1241,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="9" name="墨迹 8">
@@ -1609,10 +1612,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1653,17 +1656,17 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1674,7 +1677,7 @@
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C21" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
@@ -1712,8 +1715,13 @@
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C28" s="7" t="s">
-        <v>67</v>
+      <c r="C28" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E29" s="6" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1759,7 +1767,7 @@
       </c>
     </row>
     <row r="40" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K40" s="4" t="s">
+      <c r="K40" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1799,7 +1807,7 @@
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="J17" s="6" t="s">
+      <c r="J17" s="5" t="s">
         <v>19</v>
       </c>
     </row>

--- a/09_Driver/01 第一个Windows驱动.xlsx
+++ b/09_Driver/01 第一个Windows驱动.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.important\mySoftwareReverse\09_Driver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{490D6720-9640-4E68-AE17-16D98D92659A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78706851-ED58-42D3-97EA-09DA122A6B7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
   <si>
     <t>1、驱动是进程吗?</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -119,176 +119,196 @@
     <t>kd&gt; dt pDriver</t>
   </si>
   <si>
+    <t xml:space="preserve">0x8744c2f0 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   +0x000 Type             : 0n4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   +0x002 Size             : 0n168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   +0x004 DeviceObject     : (null) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   +0x008 Flags            : 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   +0x028 FastIoDispatch   : (null) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   +0x030 DriverStartIo    : (null) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   +0x038 MajorFunction    : [28] 0x83ed1da3     long  nt!IopInvalidDeviceRequest+0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   +0x00c DriverStart      : 0x9940b000 Void  // sys文件在内存中的基址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   +0x010 DriverSize       : 0x6000  // sys文件内存对齐后大小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   +0x01c DriverName       : _UNICODE_STRING "\Driver\TestDriver"  // 驱动名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   +0x02c DriverInit       : 0x9940f000     long  TestDriver!GsDriverEntry+0  // 入口点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   +0x034 DriverUnload     : 0x9940c000     void  TestDriver!DriverUnload+0  // 驱动卸载函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   +0x024 HardwareDatabase : 0x84188250 _UNICODE_STRING "\REGISTRY\MACHINE\HARDWARE\DESCRIPTION\SYSTEM"  // 驱动注册表路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   +0x018 DriverExtension  : 0x8744c398 _DRIVER_EXTENSION  // 驱动拓展，后面进行驱动隐藏有用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Start为驱动启动类型，0 随开机启动，1 随内核初始化启动，2 登陆后启动，3 手动加载，4 禁用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type为驱动类型，1 服务类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3）驱动注册中路径及其相关项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>驱动的两种加载方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务驱动(官方)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OpenSrcManager</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreateService</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeleteService</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StopService</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StartService</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本地加载 Zw/NtLoadDriver  Zw/NtUnloadDriver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个导出函数 导出两个名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个方式加载驱动，不是本进程加载，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不一定成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杀软 无法拦截是谁加载的，只知道是系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>而是通知 csrss.exe/svchost.exe 写注册表 加载，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杀软 可以直接拦截，且知道是谁加载的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要自己写入/删除注册表数据，直接加载/卸载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6、PUNICODE_STRING 字符串类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>typedef struct _UNICODE_STRING {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  USHORT Length;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  USHORT MaximumLength;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  PWSTR  Buffer;</t>
+  </si>
+  <si>
+    <t>} UNICODE_STRING, *PUNICODE_STRING;</t>
+  </si>
+  <si>
+    <t>// buffer的最大长度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// buffer的指针</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// buffer中字符串长度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以0结尾的字符串是不安全的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DbgPrint函数输出时，对应的字符串格式为 %wZ，需要传入PUNICODE_STRING 就是这个结构变量的地址。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>窄字符时使用的格式为为%Z。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Local var @ 0x807ea9e0 Type _DRIVER_OBJECT*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0x8744c2f0 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   +0x000 Type             : 0n4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   +0x002 Size             : 0n168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   +0x004 DeviceObject     : (null) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   +0x008 Flags            : 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   +0x014 DriverSection    : 0x874e0ac0 Void</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   +0x028 FastIoDispatch   : (null) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   +0x030 DriverStartIo    : (null) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   +0x038 MajorFunction    : [28] 0x83ed1da3     long  nt!IopInvalidDeviceRequest+0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   +0x00c DriverStart      : 0x9940b000 Void  // sys文件在内存中的基址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   +0x010 DriverSize       : 0x6000  // sys文件内存对齐后大小</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   +0x01c DriverName       : _UNICODE_STRING "\Driver\TestDriver"  // 驱动名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   +0x02c DriverInit       : 0x9940f000     long  TestDriver!GsDriverEntry+0  // 入口点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   +0x034 DriverUnload     : 0x9940c000     void  TestDriver!DriverUnload+0  // 驱动卸载函数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   +0x024 HardwareDatabase : 0x84188250 _UNICODE_STRING "\REGISTRY\MACHINE\HARDWARE\DESCRIPTION\SYSTEM"  // 驱动注册表路径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   +0x018 DriverExtension  : 0x8744c398 _DRIVER_EXTENSION  // 驱动拓展，后面进行驱动隐藏有用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Start为驱动启动类型，0 随开机启动，1 随内核初始化启动，2 登陆后启动，3 手动加载，4 禁用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Type为驱动类型，1 服务类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3）驱动注册中路径及其相关项</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>驱动的两种加载方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务驱动(官方)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OpenSrcManager</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CreateService</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DeleteService</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>StopService</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>StartService</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本地加载 Zw/NtLoadDriver  Zw/NtUnloadDriver</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一个导出函数 导出两个名字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这个方式加载驱动，不是本进程加载，</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不一定成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杀软 无法拦截是谁加载的，只知道是系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>而是通知 csrss.exe/svchost.exe 写注册表 加载，</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杀软 可以直接拦截，且知道是谁加载的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要自己写入/删除注册表数据，直接加载/卸载</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6、PUNICODE_STRING 字符串类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>typedef struct _UNICODE_STRING {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  USHORT Length;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  USHORT MaximumLength;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  PWSTR  Buffer;</t>
-  </si>
-  <si>
-    <t>} UNICODE_STRING, *PUNICODE_STRING;</t>
-  </si>
-  <si>
-    <t>// buffer的最大长度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>// buffer的指针</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>// buffer中字符串长度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>以0结尾的字符串是不安全的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DbgPrint函数输出时，对应的字符串格式为 %wZ，需要传入PUNICODE_STRING 就是这个结构变量的地址。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>窄字符时使用的格式为为%Z。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7、CMD的net命令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开启服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net start TestDriver</t>
+  </si>
+  <si>
+    <t>停止服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net stop TestDriver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   +0x014 DriverSection    : 0x874e0ac0 Void  // 驱动链表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1612,10 +1632,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1672,56 +1692,77 @@
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C21" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C22" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C23" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C24" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C25" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C26" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C28" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E29" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B32" s="2" t="s">
         <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C33" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C34" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1740,7 +1781,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B2762C1-014D-4A47-9E83-B4BF8BDB3DF9}">
   <dimension ref="B2:K56"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L62" sqref="L62"/>
     </sheetView>
   </sheetViews>
@@ -1792,7 +1833,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C39837CD-C521-40EF-B44F-D7A44B19B61F}">
   <dimension ref="B3:M47"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -1828,102 +1871,102 @@
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
-        <v>29</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
       <c r="M46" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.25">
       <c r="M47" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1945,48 +1988,48 @@
   <sheetData>
     <row r="3" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H8" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H10" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
@@ -1994,27 +2037,27 @@
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/09_Driver/01 第一个Windows驱动.xlsx
+++ b/09_Driver/01 第一个Windows驱动.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.important\mySoftwareReverse\09_Driver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78706851-ED58-42D3-97EA-09DA122A6B7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3C81FDF-3284-4A96-BD27-84E5455CD631}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -65,10 +65,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2）选择 "Empty WDM Driver"，并配置项目属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3）源码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -309,6 +305,10 @@
   </si>
   <si>
     <t xml:space="preserve">   +0x014 DriverSection    : 0x874e0ac0 Void  // 驱动链表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2）选择 "Empty WDM Driver"，并配置项目属性(注意将项目中的inf文件删除)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1634,8 +1634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1682,87 +1682,87 @@
     </row>
     <row r="16" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B16" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B18" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C21" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C22" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C23" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C24" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C25" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C26" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C28" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E29" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B32" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C33" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="34" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C34" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1781,8 +1781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B2762C1-014D-4A47-9E83-B4BF8BDB3DF9}">
   <dimension ref="B2:K56"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L62" sqref="L62"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1794,32 +1794,32 @@
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K37" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K40" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K42" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1833,7 +1833,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C39837CD-C521-40EF-B44F-D7A44B19B61F}">
   <dimension ref="B3:M47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
@@ -1841,132 +1841,132 @@
   <sheetData>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="J5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="J17" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="J18" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
       <c r="M46" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.25">
       <c r="M47" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1988,48 +1988,48 @@
   <sheetData>
     <row r="3" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H8" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H10" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
@@ -2037,27 +2037,27 @@
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/09_Driver/01 第一个Windows驱动.xlsx
+++ b/09_Driver/01 第一个Windows驱动.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.important\mySoftwareReverse\09_Driver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3C81FDF-3284-4A96-BD27-84E5455CD631}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30EC6E9D-A4F2-46FC-9286-D79B4623ED7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="16596" windowHeight="12348" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -65,10 +65,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3）源码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>注意: 若是不加 'extern "C" ' 会报错</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -309,6 +305,10 @@
   </si>
   <si>
     <t>2）选择 "Empty WDM Driver"，并配置项目属性(注意将项目中的inf文件删除)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3）源码(驱动开发使用纯C)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1682,87 +1682,87 @@
     </row>
     <row r="16" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B16" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B18" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C21" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C22" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C23" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C24" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C25" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C26" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C28" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E29" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B32" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C33" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="34" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C34" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1781,8 +1781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B2762C1-014D-4A47-9E83-B4BF8BDB3DF9}">
   <dimension ref="B2:K56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1794,32 +1794,32 @@
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
-        <v>9</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K37" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K40" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K42" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1841,132 +1841,132 @@
   <sheetData>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="J5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="J17" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="J18" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
       <c r="M46" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.25">
       <c r="M47" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1988,48 +1988,48 @@
   <sheetData>
     <row r="3" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H8" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H10" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
@@ -2037,27 +2037,27 @@
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
